--- a/biology/Botanique/Belle_Isis/Belle_Isis.xlsx
+++ b/biology/Botanique/Belle_Isis/Belle_Isis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Belle Isis' est un cultivar de rosier ancien obtenu avant 1845 par Parmentier[1], fameux obtenteur de Belgique. Il doit son nom à la déesse égyptienne de l'amour et de la fertilité, Isis[2]. 
+'Belle Isis' est un cultivar de rosier ancien obtenu avant 1845 par Parmentier, fameux obtenteur de Belgique. Il doit son nom à la déesse égyptienne de l'amour et de la fertilité, Isis. 
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Belle Isis' est un rose gallique plus haute que les autres galliques, pouvant s'élever à 2 mètres, mais sa hauteur moyenne est de 120 cm. Son feuillage mat est vert clair à vert foncé à cinq folioles ovales. Ses fleurs très doubles[3] en coupe à l'allure chiffonnée sont de couleur rose pâle très pur[4], ce qui est inhabituel pour une rose gallique (celles-ci sont d'ordinaire rouges) ; elles pâlissent encore par la suite[5]. Elles comportent 17 à 25 pétales[2]. Elles exhalent un fort parfum de myrrhe, dû peut-être à l'ascendance du rosier 'Ayrshire Splendens'[6],[5]. La floraison exubérante a lieu en mai-juin. Elle résiste aux hivers de -15° à -20° (zone de rusticité 6) et tolère les sols calcaires[7]. Au début du printemps, il faut effectuer une taille d'entretien de la silhouette[8].
-Cette rose est à l'origine des premières roses anglaises de David Austin, dont 'Constance Spry' (1961), et plus tard 'Gertrude Jekyll' (1986), elle-même issue de 'Constance Spry'. 'Belle Isis' serait issue d'un croisement entre une rose gallique et une rose centifolia[9].
-On peut l'admirer à la roseraie du Val-de-Marne[10] et à l'Europa-Rosarium de Sangerhausen, en Allemagne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Belle Isis' est un rose gallique plus haute que les autres galliques, pouvant s'élever à 2 mètres, mais sa hauteur moyenne est de 120 cm. Son feuillage mat est vert clair à vert foncé à cinq folioles ovales. Ses fleurs très doubles en coupe à l'allure chiffonnée sont de couleur rose pâle très pur, ce qui est inhabituel pour une rose gallique (celles-ci sont d'ordinaire rouges) ; elles pâlissent encore par la suite. Elles comportent 17 à 25 pétales. Elles exhalent un fort parfum de myrrhe, dû peut-être à l'ascendance du rosier 'Ayrshire Splendens',. La floraison exubérante a lieu en mai-juin. Elle résiste aux hivers de -15° à -20° (zone de rusticité 6) et tolère les sols calcaires. Au début du printemps, il faut effectuer une taille d'entretien de la silhouette.
+Cette rose est à l'origine des premières roses anglaises de David Austin, dont 'Constance Spry' (1961), et plus tard 'Gertrude Jekyll' (1986), elle-même issue de 'Constance Spry'. 'Belle Isis' serait issue d'un croisement entre une rose gallique et une rose centifolia.
+On peut l'admirer à la roseraie du Val-de-Marne et à l'Europa-Rosarium de Sangerhausen, en Allemagne.
 			'Belle Isis' à Sangerhausen
 			'Belle Isis' à Sangerhausen
 			'belle Isis' à Sangerhausen
